--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T19:03:14+00:00</t>
+    <t>2024-08-12T19:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T19:06:04+00:00</t>
+    <t>2024-08-20T21:48:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:48:07+00:00</t>
+    <t>2024-08-22T16:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-22T16:27:20+00:00</t>
+    <t>2024-09-10T18:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Case Sensitive</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>Value Set (all codes)</t>
@@ -412,49 +415,51 @@
       <c r="A15" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2"/>
     </row>
@@ -473,87 +478,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2"/>
     </row>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncpi-family-types.xlsx
+++ b/CodeSystem-ncpi-family-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
